--- a/excel/Testy GA.xlsx
+++ b/excel/Testy GA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\Schedule_GA\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3EA1D6-F946-44AD-9048-7157386488D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7FB537-D5F2-4176-BBEE-A5E4A1DAE2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
   <si>
     <t>Szansa mutacji:</t>
   </si>
@@ -212,10 +212,22 @@
     <t>Pracownicy_test1.txt</t>
   </si>
   <si>
-    <t>Grafik_test2.txt</t>
-  </si>
-  <si>
-    <t>Pracownicy_test2.txt</t>
+    <t>2 (nowe osobniki)</t>
+  </si>
+  <si>
+    <t>Nr. Zestawu: 2</t>
+  </si>
+  <si>
+    <t>Nr. Zestawu 2</t>
+  </si>
+  <si>
+    <t>Nr. Zestawu: 3</t>
+  </si>
+  <si>
+    <t>Nr. Zestawu 3</t>
+  </si>
+  <si>
+    <t>3 (referencje)</t>
   </si>
 </sst>
 </file>
@@ -310,7 +322,68 @@
     <cellStyle name="60% — akcent 6" xfId="2" builtinId="52"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -464,7 +537,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{83473B19-AB8C-4F10-8C51-BED4DDA9B204}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -487,6 +560,17 @@
     <tableColumn id="3" xr3:uid="{498D4268-2EE9-458F-B829-C0114F55D0AE}" name="Kolumna3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{65DF06FC-1ADE-49BA-AE70-5A50043D1204}" name="Tabela17811" displayName="Tabela17811" ref="A27:B36" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A27:B36" xr:uid="{65DF06FC-1ADE-49BA-AE70-5A50043D1204}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F3ECC319-7806-4694-B47C-A93D0D7A7283}" name="Nazwa" dataDxfId="1" dataCellStyle="60% — akcent 6"/>
+    <tableColumn id="2" xr3:uid="{783F98F9-E00A-4A33-803C-21DC18A7957F}" name="Wartość" dataDxfId="0" dataCellStyle="40% — akcent 6"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -514,24 +598,72 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B63B79D4-18E2-43D7-975A-74AAA2AF2F6E}" name="Tabela17" displayName="Tabela17" ref="A5:B14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B63B79D4-18E2-43D7-975A-74AAA2AF2F6E}" name="Tabela17" displayName="Tabela17" ref="A5:B14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A5:B14" xr:uid="{B63B79D4-18E2-43D7-975A-74AAA2AF2F6E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{91B010A9-0ECF-4FAF-90CE-EF43DC17AAFD}" name="Nazwa" dataDxfId="5" dataCellStyle="60% — akcent 6"/>
-    <tableColumn id="2" xr3:uid="{0F01F203-F22B-4B29-A875-BD31916F7FA1}" name="Wartość" dataDxfId="4" dataCellStyle="40% — akcent 6"/>
+    <tableColumn id="1" xr3:uid="{91B010A9-0ECF-4FAF-90CE-EF43DC17AAFD}" name="Nazwa" dataDxfId="9" dataCellStyle="60% — akcent 6"/>
+    <tableColumn id="2" xr3:uid="{0F01F203-F22B-4B29-A875-BD31916F7FA1}" name="Wartość" dataDxfId="8" dataCellStyle="40% — akcent 6"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7440673E-4008-4A93-A883-5AF750B60CA1}" name="Tabela178" displayName="Tabela178" ref="A16:B25" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7440673E-4008-4A93-A883-5AF750B60CA1}" name="Tabela178" displayName="Tabela178" ref="A16:B25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A16:B25" xr:uid="{7440673E-4008-4A93-A883-5AF750B60CA1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{23B8E7D7-364B-4B32-9281-E3F5056BFAAF}" name="Nazwa" dataDxfId="1" dataCellStyle="60% — akcent 6"/>
-    <tableColumn id="2" xr3:uid="{BC68D83D-7D57-48CA-966B-63897150958D}" name="Wartość" dataDxfId="0" dataCellStyle="40% — akcent 6"/>
+    <tableColumn id="1" xr3:uid="{23B8E7D7-364B-4B32-9281-E3F5056BFAAF}" name="Nazwa" dataDxfId="5" dataCellStyle="60% — akcent 6"/>
+    <tableColumn id="2" xr3:uid="{BC68D83D-7D57-48CA-966B-63897150958D}" name="Wartość" dataDxfId="4" dataCellStyle="40% — akcent 6"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F490DD2-EB2E-4601-91BD-0115FAFC80DA}" name="Tabela32" displayName="Tabela32" ref="D34:F65" totalsRowShown="0">
+  <autoFilter ref="D34:F65" xr:uid="{2F490DD2-EB2E-4601-91BD-0115FAFC80DA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{311BC40C-D5B9-4726-ABF6-9544151BE154}" name="Kolumna1"/>
+    <tableColumn id="2" xr3:uid="{C6A8A888-BD43-4538-97E2-EE623E57C89C}" name="Kolumna2"/>
+    <tableColumn id="3" xr3:uid="{2A89E31F-91BB-4935-A2AF-0B6EC3525180}" name="Kolumna3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ABAEA641-D7F4-499B-AFCE-47505DF781A4}" name="Tabela43" displayName="Tabela43" ref="H34:J39" totalsRowShown="0">
+  <autoFilter ref="H34:J39" xr:uid="{ABAEA641-D7F4-499B-AFCE-47505DF781A4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6415DAB0-8393-470E-801B-3D190C4E3A01}" name="Kolumna1"/>
+    <tableColumn id="2" xr3:uid="{CCC2BDE1-8E09-45EF-9AAD-E1CEB75C8BD9}" name="Kolumna2"/>
+    <tableColumn id="3" xr3:uid="{AE67F4CB-45F0-45B7-ACB7-70E7918A5C20}" name="Kolumna3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B533089E-1AC5-4072-B0DB-E3B63892D296}" name="Tabela329" displayName="Tabela329" ref="D67:F98" totalsRowShown="0">
+  <autoFilter ref="D67:F98" xr:uid="{B533089E-1AC5-4072-B0DB-E3B63892D296}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{504DBCA2-9142-4C77-8E81-A1FB3D6CC32A}" name="Kolumna1"/>
+    <tableColumn id="2" xr3:uid="{E48CE93D-7846-43C0-A054-47897F4F2277}" name="Kolumna2"/>
+    <tableColumn id="3" xr3:uid="{E18803E6-4C0B-4801-A577-577BE5E8EE5E}" name="Kolumna3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EB7FB9B9-9794-428B-B026-713D53B042E2}" name="Tabela4310" displayName="Tabela4310" ref="H67:J72" totalsRowShown="0">
+  <autoFilter ref="H67:J72" xr:uid="{EB7FB9B9-9794-428B-B026-713D53B042E2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5E133BCB-5345-4378-8DDB-02C9D5E97EC6}" name="Kolumna1"/>
+    <tableColumn id="2" xr3:uid="{1D211BD2-FD82-4B98-970E-9B4B1190CB59}" name="Kolumna2"/>
+    <tableColumn id="3" xr3:uid="{800BE190-3F41-4D6C-A58A-DF23347A260A}" name="Kolumna3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -800,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69:J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,8 +1305,8 @@
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="3">
-        <v>2</v>
+      <c r="B17" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1288,7 +1420,7 @@
         <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1307,7 +1439,7 @@
         <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -1354,6 +1486,12 @@
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D27" t="s">
         <v>26</v>
       </c>
@@ -1367,6 +1505,12 @@
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" t="s">
         <v>27</v>
       </c>
@@ -1380,6 +1524,12 @@
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D29" t="s">
         <v>28</v>
       </c>
@@ -1393,6 +1543,12 @@
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
@@ -1406,6 +1562,12 @@
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
       <c r="D31" t="s">
         <v>30</v>
       </c>
@@ -1419,6 +1581,12 @@
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3">
+        <v>25</v>
+      </c>
       <c r="D32" t="s">
         <v>31</v>
       </c>
@@ -1431,269 +1599,948 @@
       <c r="M32" s="7"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F36" s="6"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2934</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1.3888888888888889E-4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="7">
+        <f>AVERAGE(E36:E65)</f>
+        <v>5206.4666666666662</v>
+      </c>
+      <c r="J36" s="6">
+        <f>AVERAGE(F36:F65)</f>
+        <v>2.4498456790123457E-4</v>
+      </c>
       <c r="M36" s="7"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F37" s="6"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>4607</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="7">
+        <f>MAX(E36:E65)</f>
+        <v>14609</v>
+      </c>
+      <c r="J37" s="6">
+        <f>MAX(F36:F65)</f>
+        <v>6.9444444444444447E-4</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F38" s="6"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>3537</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="7">
+        <f>MIN(E36:E65)</f>
+        <v>1855</v>
+      </c>
+      <c r="J38" s="6">
+        <f>MIN(F36:F65)</f>
+        <v>9.2592592592592588E-5</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F39" s="6"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>3427</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1.6203703703703703E-4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="7">
+        <f>_xlfn.STDEV.P(E36:E65)</f>
+        <v>2861.0312328871132</v>
+      </c>
+      <c r="J39" s="6">
+        <f>_xlfn.STDEV.P(F36:F65)</f>
+        <v>1.3368208650896819E-4</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F40" s="6"/>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>10790</v>
+      </c>
+      <c r="F40" s="6">
+        <v>4.9768518518518521E-4</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F41" s="6"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>9326</v>
+      </c>
+      <c r="F41" s="6">
+        <v>4.2824074074074075E-4</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F42" s="6"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>8248</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3.8194444444444446E-4</v>
+      </c>
       <c r="M42" s="7"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F43" s="6"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>5327</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2.5462962962962961E-4</v>
+      </c>
       <c r="M43" s="7"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F44" s="6"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>6130</v>
+      </c>
+      <c r="F44" s="6">
+        <v>2.8935185185185184E-4</v>
+      </c>
       <c r="M44" s="7"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F45" s="6"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>5025</v>
+      </c>
+      <c r="F45" s="6">
+        <v>2.3148148148148149E-4</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F46" s="6"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>14609</v>
+      </c>
+      <c r="F46" s="6">
+        <v>6.9444444444444447E-4</v>
+      </c>
       <c r="M46" s="7"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F47" s="6"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>1855</v>
+      </c>
+      <c r="F47" s="6">
+        <v>9.2592592592592588E-5</v>
+      </c>
       <c r="M47" s="7"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F48" s="6"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48">
+        <v>5365</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2.5462962962962961E-4</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F49" s="6"/>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>6488</v>
+      </c>
+      <c r="F49" s="6">
+        <v>3.2407407407407406E-4</v>
+      </c>
       <c r="M49" s="7"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F50" s="6"/>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>4641</v>
+      </c>
+      <c r="F50" s="6">
+        <v>2.199074074074074E-4</v>
+      </c>
       <c r="M50" s="7"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F51" s="6"/>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51">
+        <v>2786</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1.3888888888888889E-4</v>
+      </c>
       <c r="M51" s="7"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F52" s="6"/>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>4915</v>
+      </c>
+      <c r="F52" s="6">
+        <v>2.3148148148148149E-4</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F53" s="6"/>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53">
+        <v>4545</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2.0833333333333335E-4</v>
+      </c>
       <c r="M53" s="7"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F54" s="6"/>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>4513</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2.199074074074074E-4</v>
+      </c>
       <c r="M54" s="7"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F55" s="6"/>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55">
+        <v>2551</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1.273148148148148E-4</v>
+      </c>
       <c r="M55" s="7"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F56" s="6"/>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56">
+        <v>2114</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1.0416666666666667E-4</v>
+      </c>
       <c r="M56" s="7"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F57" s="6"/>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57">
+        <v>3868</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1.8518518518518518E-4</v>
+      </c>
       <c r="I57" s="7"/>
       <c r="J57" s="6"/>
       <c r="M57" s="7"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F58" s="6"/>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <v>3279</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1.5046296296296297E-4</v>
+      </c>
       <c r="I58" s="7"/>
       <c r="J58" s="6"/>
       <c r="M58" s="7"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F59" s="6"/>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>10097</v>
+      </c>
+      <c r="F59" s="6">
+        <v>4.7453703703703704E-4</v>
+      </c>
       <c r="I59" s="7"/>
       <c r="J59" s="6"/>
       <c r="M59" s="7"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F60" s="6"/>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60">
+        <v>4341</v>
+      </c>
+      <c r="F60" s="6">
+        <v>2.0833333333333335E-4</v>
+      </c>
       <c r="I60" s="7"/>
       <c r="J60" s="6"/>
       <c r="M60" s="7"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F61" s="6"/>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61">
+        <v>5403</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2.5462962962962961E-4</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F62" s="6"/>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62">
+        <v>2542</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1.1574074074074075E-4</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F63" s="6"/>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>6663</v>
+      </c>
+      <c r="F63" s="6">
+        <v>3.0092592592592595E-4</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="M63" s="7"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F64" s="6"/>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>1980</v>
+      </c>
+      <c r="F64" s="6">
+        <v>9.2592592592592588E-5</v>
+      </c>
       <c r="M64" s="7"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F65" s="6"/>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65">
+        <v>4288</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1.9675925925925926E-4</v>
+      </c>
       <c r="M65" s="7"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="69" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F95" s="6"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="6"/>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2190</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1.0416666666666667E-4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" s="7">
+        <f>AVERAGE(E69:E98)</f>
+        <v>3318.4666666666667</v>
+      </c>
+      <c r="J69" s="6">
+        <f>AVERAGE(F69:F98)</f>
+        <v>1.5933641975308642E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1475</v>
+      </c>
+      <c r="F70" s="6">
+        <v>6.9444444444444444E-5</v>
+      </c>
+      <c r="H70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="7">
+        <f>MAX(E69:E98)</f>
+        <v>12109</v>
+      </c>
+      <c r="J70" s="6">
+        <f>MAX(F69:F98)</f>
+        <v>5.4398148148148144E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>2165</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1.0416666666666667E-4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" s="7">
+        <f>MIN(E69:E98)</f>
+        <v>542</v>
+      </c>
+      <c r="J71" s="6">
+        <f>MIN(F69:F98)</f>
+        <v>3.4722222222222222E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>1588</v>
+      </c>
+      <c r="F72" s="6">
+        <v>6.9444444444444444E-5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="7">
+        <f>_xlfn.STDEV.P(E69:E98)</f>
+        <v>2312.0589631081834</v>
+      </c>
+      <c r="J72" s="6">
+        <f>_xlfn.STDEV.P(F69:F98)</f>
+        <v>1.0547376645944524E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>3884</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1.7361111111111112E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <v>1428</v>
+      </c>
+      <c r="F74" s="6">
+        <v>8.1018518518518516E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>2149</v>
+      </c>
+      <c r="F75" s="6">
+        <v>9.2592592592592588E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>3976</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1.7361111111111112E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>1879</v>
+      </c>
+      <c r="F77" s="6">
+        <v>8.1018518518518516E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78">
+        <v>2465</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1.0416666666666667E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>3256</v>
+      </c>
+      <c r="F79" s="6">
+        <v>1.5046296296296297E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80">
+        <v>2957</v>
+      </c>
+      <c r="F80" s="6">
+        <v>1.3888888888888889E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>2226</v>
+      </c>
+      <c r="F81" s="6">
+        <v>1.0416666666666667E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <v>1525</v>
+      </c>
+      <c r="F82" s="6">
+        <v>6.9444444444444444E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>1294</v>
+      </c>
+      <c r="F83" s="6">
+        <v>5.7870370370370373E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>3384</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1.5046296296296297E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85">
+        <v>2924</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1.273148148148148E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86">
+        <v>7438</v>
+      </c>
+      <c r="F86" s="6">
+        <v>3.3564814814814812E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <v>8068</v>
+      </c>
+      <c r="F87" s="6">
+        <v>3.5879629629629629E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>12109</v>
+      </c>
+      <c r="F88" s="6">
+        <v>5.4398148148148144E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89">
+        <v>3871</v>
+      </c>
+      <c r="F89" s="6">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90">
+        <v>5345</v>
+      </c>
+      <c r="F90" s="6">
+        <v>2.8935185185185184E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91">
+        <v>542</v>
+      </c>
+      <c r="F91" s="6">
+        <v>3.4722222222222222E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92">
+        <v>1725</v>
+      </c>
+      <c r="F92" s="6">
+        <v>9.2592592592592588E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93">
+        <v>3982</v>
+      </c>
+      <c r="F93" s="6">
+        <v>2.199074074074074E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94">
+        <v>2820</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1.5046296296296297E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95">
+        <v>4302</v>
+      </c>
+      <c r="F95" s="6">
+        <v>2.3148148148148149E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96">
+        <v>2915</v>
+      </c>
+      <c r="F96" s="6">
+        <v>1.6203703703703703E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97">
+        <v>2431</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1.273148148148148E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98">
+        <v>3241</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1.7361111111111112E-4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>